--- a/excel/condition.xlsx
+++ b/excel/condition.xlsx
@@ -45,9 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +106,10 @@
   </si>
   <si>
     <t>时间（参数：时间；单位：秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +462,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,19 +473,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -501,24 +502,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -543,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -560,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -577,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -594,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -607,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -620,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -637,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -654,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -669,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -684,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>

--- a/excel/condition.xlsx
+++ b/excel/condition.xlsx
@@ -45,9 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +106,10 @@
   </si>
   <si>
     <t>时间（参数：时间；单位：秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +462,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,19 +473,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -501,24 +502,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -543,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -560,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -577,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -594,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -607,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -620,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -637,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -654,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -669,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -684,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>

--- a/excel/condition.xlsx
+++ b/excel/condition.xlsx
@@ -18,6 +18,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：默认开启
+1.解锁矿（参数：第几次解锁）
+2.游戏重置轮次（参数：次数）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
@@ -117,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +169,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -458,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,5 +752,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/condition.xlsx
+++ b/excel/condition.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F1" sqref="F1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
